--- a/data/income_statement/1digit/size/G_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/G_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>G-Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>G-Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>63376462.01229</v>
+        <v>66732622.47255</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>65772502.21091001</v>
+        <v>69459757.48226</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>74512439.51272</v>
+        <v>78568251.52617</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>76717722.02638002</v>
+        <v>81410437.31705001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>66048692.01778</v>
+        <v>71714965.83164001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>66437803.79410999</v>
+        <v>73323210.34001002</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>69143831.66613001</v>
+        <v>76857360.73572002</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>66986612.31101999</v>
+        <v>75007660.03074001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>69580189.24249001</v>
+        <v>78035804.39455999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>207423212.79712</v>
+        <v>223542360.39096</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>212594268.13601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>237326780.76448</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>285597575.12</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>57661590.62106001</v>
+        <v>60702116.58101001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>59513244.09319</v>
+        <v>62839252.33855999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>63889889.78206999</v>
+        <v>67575093.21688998</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>68254319.83546999</v>
+        <v>72503579.11114</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>59032821.94654001</v>
+        <v>64194178.50902999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>60162984.96138</v>
+        <v>66156762.51461</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>62051250.32133</v>
+        <v>69027625.96261001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>59147266.30324001</v>
+        <v>66441427.46533999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>59773732.50038999</v>
+        <v>67465117.54505</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>178476889.76471</v>
+        <v>192588628.39436</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>181946430.53072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>202658793.16291</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>244321631.254</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4989837.31839</v>
+        <v>5204891.38521</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>5509059.40183</v>
+        <v>5746192.859440002</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>9804097.249649998</v>
+        <v>10043678.95782</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>7740621.6766</v>
+        <v>8027548.854730001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6345356.01223</v>
+        <v>6669937.40042</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5618547.988179999</v>
+        <v>6297273.88914</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6417027.390179998</v>
+        <v>6899803.959289999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>7118716.200579999</v>
+        <v>7548309.048049998</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>9052358.551980002</v>
+        <v>9489494.50812</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>26794293.20097</v>
+        <v>28296135.12992</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>28348257.63518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>31753088.38971</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>38301246.324</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>725034.07284</v>
+        <v>825614.5063300001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>750198.71589</v>
+        <v>874312.28426</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>818452.4809999999</v>
+        <v>949479.35146</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>722780.51431</v>
+        <v>879309.3511799999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>670514.05901</v>
+        <v>850849.9221900002</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>656270.8445499998</v>
+        <v>869173.93626</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>675553.95462</v>
+        <v>929930.8138199999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>720629.8071999999</v>
+        <v>1017923.51735</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>754098.1901199999</v>
+        <v>1081192.34139</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2152029.83144</v>
+        <v>2657596.86668</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2299579.970110001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2914899.21186</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2974697.542</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>494785.65762</v>
+        <v>556985.2509399999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>483684.64147</v>
+        <v>549734.4574000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>510260.6095400001</v>
+        <v>576622.07738</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>459751.07615</v>
+        <v>531659.67658</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>425001.14939</v>
+        <v>570507.8313600002</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>431712.06612</v>
+        <v>526111.78106</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>411356.87907</v>
+        <v>549008.01718</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>458133.46843</v>
+        <v>569751.34228</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>444547.97402</v>
+        <v>612879.0022999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1831160.46217</v>
+        <v>2047036.49937</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3027901.83654</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3320827.097060001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>5295621.268</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>365852.1227199999</v>
+        <v>411638.21119</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>336610.11909</v>
+        <v>380361.5140300001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>380587.1381</v>
+        <v>434152.29642</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>346671.67287</v>
+        <v>398692.8758400001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>317028.17878</v>
+        <v>372407.79296</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>321428.41597</v>
+        <v>392743.22362</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>310520.9040699999</v>
+        <v>421922.39437</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>339758.16309</v>
+        <v>422532.99667</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>345249.9542299999</v>
+        <v>480694.83251</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1389264.01271</v>
+        <v>1560449.50187</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2639007.80795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2873595.537859999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>4840746.608</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>104043.8706</v>
+        <v>115691.22643</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>124964.30304</v>
+        <v>138672.38045</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>104659.51676</v>
+        <v>113780.19135</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>88893.00402999998</v>
+        <v>103082.19693</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>89293.4225</v>
+        <v>175218.6653</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>83715.97487000001</v>
+        <v>103184.65603</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>75659.07224999998</v>
+        <v>96670.78021000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>86431.10470000001</v>
+        <v>105887.52482</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>53148.74941999999</v>
+        <v>82519.25313000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>271194.0473099999</v>
+        <v>303603.6531699999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>230578.43829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>272256.91871</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>241971.91</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>24889.6643</v>
+        <v>29655.81332</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>22110.21934</v>
+        <v>30700.56292</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>25013.95468</v>
+        <v>28689.58961</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>24186.39925</v>
+        <v>29884.60381</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>18679.54811</v>
+        <v>22881.3731</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>26567.67527999999</v>
+        <v>30183.90140999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>25176.90275</v>
+        <v>30414.8426</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>31944.20064</v>
+        <v>41330.82079</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>46149.27037</v>
+        <v>49664.91666</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>170702.40215</v>
+        <v>182983.3443300001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>158315.5903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>174974.64049</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>212902.75</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>62881676.35467</v>
+        <v>66175637.22160999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>65288817.56944</v>
+        <v>68910023.02485999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>74002178.90317997</v>
+        <v>77991629.44879</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>76257970.95023</v>
+        <v>80878777.64047</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>65623690.86838999</v>
+        <v>71144458.00027999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>66006091.72799</v>
+        <v>72797098.55894999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>68732474.78705999</v>
+        <v>76308352.71854</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>66528478.84259</v>
+        <v>74437908.68846001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>69135641.26847</v>
+        <v>77422925.39226</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>205592052.33495</v>
+        <v>221495323.89159</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>209566366.29947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>234005953.66742</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>280301953.852</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>54934639.06665001</v>
+        <v>57570665.63281</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>57157027.01658</v>
+        <v>60022986.805</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>65445433.87498001</v>
+        <v>68619720.36827999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>68020321.46134001</v>
+        <v>71635640.19860001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>57733413.35466999</v>
+        <v>62073105.4691</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>58032941.29262</v>
+        <v>63467317.40128</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>60821069.03554001</v>
+        <v>66767715.64122001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>58338978.13587999</v>
+        <v>64398218.72544</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>60910124.00628</v>
+        <v>67201667.36648999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>182849375.41435</v>
+        <v>195914526.6455</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>185234404.3129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>205447390.92958</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>251229491.591</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3102165.01656</v>
+        <v>3411375.79774</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2829454.47248</v>
+        <v>3141292.692729999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3083663.30131</v>
+        <v>3431268.09418</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2833526.20372</v>
+        <v>3202397.59757</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2565309.83683</v>
+        <v>3002451.33371</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2672241.92802</v>
+        <v>3255972.75307</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2468833.702620001</v>
+        <v>3008436.18745</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2259512.32646</v>
+        <v>2879123.87708</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2407684.38837</v>
+        <v>3011629.60124</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>8329400.26828</v>
+        <v>9306535.74174</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>8033395.498369999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9473229.90666</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>10471385.38</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>49854232.15817001</v>
+        <v>52041015.26363</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>52243178.89287</v>
+        <v>54617111.23189</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>59854243.00459</v>
+        <v>62477446.18181001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>62837305.37289001</v>
+        <v>65865131.97345999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>53046491.37624</v>
+        <v>56710829.73259</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>53301829.53553</v>
+        <v>57879357.25111999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>56241172.96602</v>
+        <v>61258496.94877999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>53362700.23521</v>
+        <v>58389538.93172999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>55393758.8582</v>
+        <v>60580937.63143001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>167862998.46737</v>
+        <v>179289102.85869</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>170736133.36673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>188501383.00214</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>233514099.231</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1882945.16368</v>
+        <v>2009723.84146</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2008002.82669</v>
+        <v>2170804.02779</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2337765.49098</v>
+        <v>2527891.453149999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2242148.737309999</v>
+        <v>2448901.90476</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2032513.73063</v>
+        <v>2253990.74751</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1890324.16831</v>
+        <v>2139789.70615</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1934008.45841</v>
+        <v>2283979.32208</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2073538.89052</v>
+        <v>2436124.68062</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2203254.62646</v>
+        <v>2633736.23152</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5038588.136250001</v>
+        <v>5616438.85135</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5891725.05346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6774985.60822</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6344584.873</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>95296.72824</v>
+        <v>108550.72998</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>76390.82454</v>
+        <v>93778.85259000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>169762.0781</v>
+        <v>183114.63914</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>107341.14742</v>
+        <v>119208.72281</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>89098.41097</v>
+        <v>105833.65529</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>168545.66076</v>
+        <v>192197.69094</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>177053.90849</v>
+        <v>216803.18291</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>643226.6836900002</v>
+        <v>693431.2360099999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>905426.1332499998</v>
+        <v>975363.9023</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1618388.54245</v>
+        <v>1702449.19372</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>573150.39434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>697792.41256</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>899422.107</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>7947037.28802</v>
+        <v>8604971.5888</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>8131790.552859999</v>
+        <v>8887036.219860001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>8556745.028200001</v>
+        <v>9371909.08051</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>8237649.488890001</v>
+        <v>9243137.441869998</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7890277.51372</v>
+        <v>9071352.53118</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>7973150.435370001</v>
+        <v>9329781.157670001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7911405.75152</v>
+        <v>9540637.077320002</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>8189500.706709999</v>
+        <v>10039689.96302</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>8225517.26219</v>
+        <v>10221258.02577</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>22742676.9206</v>
+        <v>25580797.24609</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>24331961.98657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>28558562.73784</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>29072462.261</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>6912301.26305</v>
+        <v>7745732.53932</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>7090520.657950001</v>
+        <v>8036961.61912</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>7553508.28121</v>
+        <v>8633690.58567</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>7548176.72835</v>
+        <v>8756967.605259998</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>7416818.291569998</v>
+        <v>8897190.708079999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>7502563.412179998</v>
+        <v>9195899.230600003</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>7457368.154679999</v>
+        <v>9664470.87157</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>7984066.575929999</v>
+        <v>10378538.50207</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7995108.916790001</v>
+        <v>10565212.40783</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>19439645.85725</v>
+        <v>22658119.70764</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>21388957.21882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>26207475.6497</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>26243296.292</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>19355.50295</v>
+        <v>21551.53666999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>18264.82859</v>
+        <v>20038.94691999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>22470.54294</v>
+        <v>26996.91123</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>19383.32353</v>
+        <v>22692.92492</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>16679.69624</v>
+        <v>22099.95332</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>16737.01634</v>
+        <v>19907.33312</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>18408.99454</v>
+        <v>21568.68481</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>20474.91854</v>
+        <v>24799.52324</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>15478.85414</v>
+        <v>23000.86896</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>35191.13185</v>
+        <v>58434.62905</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>30785.16626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>41843.72287999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>50351.702</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1554256.94038</v>
+        <v>1726994.19311</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1611308.95607</v>
+        <v>1786193.83509</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1730047.29678</v>
+        <v>1936375.12469</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1739338.18964</v>
+        <v>1971094.99714</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1708124.72957</v>
+        <v>1999556.37897</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1716584.2873</v>
+        <v>2044607.30683</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1711165.63873</v>
+        <v>2131684.89657</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1833575.31179</v>
+        <v>2288054.5242</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1842657.1525</v>
+        <v>2335641.89531</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5376181.91524</v>
+        <v>6059799.48367</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5892521.01944</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6933374.621520001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7036686.465</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>5338688.819719998</v>
+        <v>5997186.809540001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5460946.87329</v>
+        <v>6230728.837110001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>5800990.44149</v>
+        <v>6670318.549750001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>5789455.215179999</v>
+        <v>6763179.683200001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>5692013.86576</v>
+        <v>6875534.375789999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>5769242.108540001</v>
+        <v>7131384.590650001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5727793.52141</v>
+        <v>7511217.290189999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>6130016.345600001</v>
+        <v>8065684.45463</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>6136972.91015</v>
+        <v>8206569.643560002</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>14028272.81016</v>
+        <v>16539885.59492</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>15465651.03312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>19232257.3053</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>19156258.125</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1034736.02497</v>
+        <v>859239.04948</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1041269.89491</v>
+        <v>850074.60074</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1003236.74699</v>
+        <v>738218.4948400001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>689472.7605399999</v>
+        <v>486169.83661</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>473459.2221500001</v>
+        <v>174161.8231</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>470587.02319</v>
+        <v>133881.92707</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>454037.5968399999</v>
+        <v>-123833.79425</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>205434.13078</v>
+        <v>-338848.53905</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>230408.3454</v>
+        <v>-343954.3820600001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3303031.063350001</v>
+        <v>2922677.53845</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2943004.767750001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2351087.08814</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2829165.969</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>365078.77412</v>
+        <v>4269876.69908</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>333465.94752</v>
+        <v>1762279.48599</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>419076.95125</v>
+        <v>1787649.73047</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>325181.26524</v>
+        <v>2250565.82717</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>384013.3980800001</v>
+        <v>2506858.2186</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>392270.4995099999</v>
+        <v>2079430.73525</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>505423.36296</v>
+        <v>3199971.86015</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>410796.6725</v>
+        <v>3212216.2444</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>538989.75898</v>
+        <v>4852219.772869999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2677285.74289</v>
+        <v>12097855.41773</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1635009.21784</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7056764.742799999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8335722.347</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2130.88948</v>
+        <v>385125.47629</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2220.44818</v>
+        <v>382878.7375999998</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3468.1035</v>
+        <v>487781.5843800001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3226.86392</v>
+        <v>518976.07494</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3679.53348</v>
+        <v>531149.83467</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1757.99469</v>
+        <v>460908.58244</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1874.87938</v>
+        <v>550056.56823</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3089.26158</v>
+        <v>716074.91308</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2083.98323</v>
+        <v>1914147.00382</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>7568.9443</v>
+        <v>1175266.11122</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>10667.96362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1137774.36697</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>675493.218</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2349.47295</v>
+        <v>2456046.96451</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>444.09327</v>
+        <v>230747.45461</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>996.2178</v>
+        <v>79549.23942999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>668.07466</v>
+        <v>155594.71085</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>220.42741</v>
+        <v>169284.1280699999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>982.28</v>
+        <v>126699.96425</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>646.2</v>
+        <v>82931.359</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>542.07796</v>
+        <v>164013.90657</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>581.11299</v>
+        <v>130469.31793</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>3699.94904</v>
+        <v>1106804.79778</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2833.45382</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>204040.07088</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>100914.423</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>28962.09614999999</v>
+        <v>111436.59267</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>24493.17873</v>
+        <v>99256.00979000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>25177.76337</v>
+        <v>118163.54565</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>27782.83515</v>
+        <v>169328.83233</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>23285.27323</v>
+        <v>152076.96906</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>26880.79686</v>
+        <v>193640.12797</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>26662.1067</v>
+        <v>247081.10951</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>25578.84784</v>
+        <v>249393.5718</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>29168.78891</v>
+        <v>310367.13278</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>141891.38172</v>
+        <v>731731.1154199998</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>156111.54793</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>807900.7285200001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>622429.26</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>35462.65945000001</v>
+        <v>43410.56864</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>33972.98195999999</v>
+        <v>41209.70047</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>38438.59838</v>
+        <v>45132.86401</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>35758.75927</v>
+        <v>41981.04564</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>39869.46325</v>
+        <v>49782.84405000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>30899.65885</v>
+        <v>40942.36908</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>32177.00536</v>
+        <v>49729.06504</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>31247.26009</v>
+        <v>44749.98006</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>29005.2529</v>
+        <v>57898.47297000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>61400.03472</v>
+        <v>93902.06483000002</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>70309.57839999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>105807.22171</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>111713.417</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>11444.71733</v>
+        <v>141132.73841</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>10068.16344</v>
+        <v>136278.1334</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>10077.96714</v>
+        <v>210351.1977899999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>8325.681639999999</v>
+        <v>132861.06328</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>5771.697319999999</v>
+        <v>130330.87598</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6325.63407</v>
+        <v>20264.06566</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5219.907609999999</v>
+        <v>135698.3756999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7135.002289999999</v>
+        <v>22809.60609</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5573.89071</v>
+        <v>34728.78945</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>19099.97394</v>
+        <v>544399.22143</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>19771.34505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>342840.78876</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>443492.316</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>5148.158390000001</v>
+        <v>15432.20508</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3315.58194</v>
+        <v>10095.28127</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>5652.05362</v>
+        <v>38095.57975</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5829.75586</v>
+        <v>275535.5432000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>5781.27037</v>
+        <v>24379.89419</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>66347.32032</v>
+        <v>102720.13588</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>72126.13605</v>
+        <v>249000.8010799999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3396.97488</v>
+        <v>147531.05745</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3187.39654</v>
+        <v>82707.97686999998</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>16310.48923</v>
+        <v>165505.37966</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>16031.49404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>179915.75751</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>145838.819</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>158892.33316</v>
+        <v>888985.00313</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>130781.74554</v>
+        <v>615167.22925</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>196332.08903</v>
+        <v>537438.3138</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>110855.89374</v>
+        <v>443377.37027</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>174967.41638</v>
+        <v>656684.27839</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>144601.84964</v>
+        <v>792763.1730800001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>250983.80184</v>
+        <v>1454380.34651</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>215351.47956</v>
+        <v>1363506.07706</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>332079.5541899999</v>
+        <v>1780621.67899</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2019603.6639</v>
+        <v>7357486.100900001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>963731.7335399998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2752302.5874</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>5117975.176</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>850.44915</v>
+        <v>2143.07714</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>736.51986</v>
+        <v>1710.71998</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>603.3592399999999</v>
+        <v>999.4356700000001</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>433.72724</v>
+        <v>811.4133699999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>396.8295399999999</v>
+        <v>945.4886700000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>89.18915999999999</v>
+        <v>388.64988</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>217.78218</v>
+        <v>1068.5826</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>367.0683</v>
+        <v>823.97226</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>290.32067</v>
+        <v>1153.43907</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>992.0329999999999</v>
+        <v>2679.19923</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1224.3357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>9883.486500000001</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>11076.438</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>5492.65054</v>
+        <v>7820.07866</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>6571.521620000001</v>
+        <v>8864.07409</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>7722.19383</v>
+        <v>10172.61524</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>4338.811100000001</v>
+        <v>6175.91419</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>7266.089419999999</v>
+        <v>12302.37887</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>6791.10381</v>
+        <v>12589.32607</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>8344.411400000001</v>
+        <v>14717.59167</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>9584.39892</v>
+        <v>18441.36826</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>17627.24138</v>
+        <v>33616.13507</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>81637.23606</v>
+        <v>125105.78922</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>29629.73809</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>50163.04356999999</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>109853.887</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>114345.34752</v>
+        <v>218343.99455</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>120861.71298</v>
+        <v>236072.14553</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>130608.60534</v>
+        <v>259965.35475</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>127960.86266</v>
+        <v>505923.8590999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>122775.39768</v>
+        <v>779921.52665</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>107594.67211</v>
+        <v>328514.34094</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>107171.13244</v>
+        <v>415308.06081</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>114504.30108</v>
+        <v>484871.79177</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>119392.21746</v>
+        <v>506509.82592</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>325082.03698</v>
+        <v>794975.63804</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>364698.02765</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1466136.69098</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>996935.393</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>333133.23766</v>
+        <v>1095642.17304</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>263923.3566700001</v>
+        <v>696514.1226600001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>329383.05329</v>
+        <v>1007906.14267</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>239277.20785</v>
+        <v>725675.3018700001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>281501.26092</v>
+        <v>1365835.69498</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>347675.9955400001</v>
+        <v>1261102.916</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>449318.5101</v>
+        <v>2248619.17808</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>396923.32116</v>
+        <v>2540417.49944</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>446496.38569</v>
+        <v>2565010.17445</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2432769.29315</v>
+        <v>9955878.743150001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1365760.93405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3798916.521149999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6873225.839</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>32446.26812</v>
+        <v>47166.34808</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>26178.61968</v>
+        <v>29459.697</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>28153.97855</v>
+        <v>30660.62531</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>23798.39536999999</v>
+        <v>26057.3335</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>23125.02133</v>
+        <v>28150.90073</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>25985.08313</v>
+        <v>31984.69223</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>20837.012</v>
+        <v>26837.899</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>25034.03047</v>
+        <v>28640.1327</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>27821.10032</v>
+        <v>35622.29340000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>92720.03031999998</v>
+        <v>103494.63092</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>148133.58716</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>164646.41632</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>148441.844</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>67315.57717</v>
+        <v>96222.46051999998</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>39472.72728</v>
+        <v>53729.47926</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>29383.65359</v>
+        <v>55993.10388</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>41855.61012999999</v>
+        <v>57150.82908</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>32735.07467</v>
+        <v>47555.33939</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>43451.68530999999</v>
+        <v>98933.50881999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>42147.02772000001</v>
+        <v>81014.64660000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>37012.26392</v>
+        <v>68155.08915</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>23393.63661</v>
+        <v>126969.96652</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>140080.92503</v>
+        <v>1065830.2334</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>150381.09898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>319053.1981999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>422706.928</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1918.12267</v>
+        <v>16022.72289</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2397.84565</v>
+        <v>6661.070569999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>12760.64822</v>
+        <v>19747.74</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2433.329639999999</v>
+        <v>14409.87533</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>8283.612719999999</v>
+        <v>22247.42921</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>84999.93012</v>
+        <v>129701.99205</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>95877.36296000001</v>
+        <v>118929.83469</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2369.9544</v>
+        <v>174298.61887</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1510.75051</v>
+        <v>35836.57862000001</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>7370.626709999999</v>
+        <v>36692.25605</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5016.897939999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>26038.73277</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>75753.974</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>157784.70097</v>
+        <v>798998.7463199999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>119681.45541</v>
+        <v>492358.04873</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>170402.70225</v>
+        <v>761820.8326400002</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>109207.86759</v>
+        <v>370972.7767699999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>153258.98297</v>
+        <v>1124752.50955</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>134143.40627</v>
+        <v>879066.0292200001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>228452.96034</v>
+        <v>1854137.46093</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>188800.7028</v>
+        <v>2015692.23478</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>338583.0146200001</v>
+        <v>2190363.62552</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1989202.43574</v>
+        <v>8382297.157459999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>908379.8077799999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3020614.90943</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5815656.87</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1495.56549</v>
+        <v>2047.49885</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>799.7840900000001</v>
+        <v>1653.12246</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>584.7647000000001</v>
+        <v>1195.53217</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>532.4564799999999</v>
+        <v>1857.24562</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1044.71358</v>
+        <v>1304.72192</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>739.6428</v>
+        <v>1310.97322</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>359.8372699999999</v>
+        <v>1572.92398</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>266.04489</v>
+        <v>1249.3323</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>206.49904</v>
+        <v>1184.7149</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2935.02458</v>
+        <v>5006.065570000001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2432.18255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>12862.83904</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>11054.477</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>4714.025439999999</v>
+        <v>6288.729190000001</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>4358.640780000001</v>
+        <v>7168.0843</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>6768.04664</v>
+        <v>11366.08148</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>2556.25468</v>
+        <v>4412.08061</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>5667.17376</v>
+        <v>9475.387429999999</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>6427.24729</v>
+        <v>14157.05528</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>5686.89213</v>
+        <v>12630.59553</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>6030.14826</v>
+        <v>15344.39327</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>7898.029449999999</v>
+        <v>23477.2279</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>61349.6203</v>
+        <v>109511.07686</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>20238.70153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>36669.50012</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>84899.686</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>67458.97779999999</v>
+        <v>128895.66719</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>71034.28378</v>
+        <v>105484.62034</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>81329.25934000002</v>
+        <v>127122.22719</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>58893.29396</v>
+        <v>250815.16096</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>57386.68188999999</v>
+        <v>132349.40675</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>51929.00062000001</v>
+        <v>105948.66518</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>55957.41768</v>
+        <v>153495.81735</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>137410.17642</v>
+        <v>237037.69837</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>47083.35514</v>
+        <v>151555.76759</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>139110.63047</v>
+        <v>253047.32289</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>131178.65811</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>219030.92527</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>314712.06</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>409888.8546500001</v>
+        <v>836832.56799</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>310585.67749</v>
+        <v>526694.9293899999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>317265.92651</v>
+        <v>622355.3830999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>351459.5519900001</v>
+        <v>624482.65026</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>310819.42744</v>
+        <v>681487.23333</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>313470.47148</v>
+        <v>728127.3289600001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>300872.1377</v>
+        <v>825058.8101300001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>305661.77791</v>
+        <v>963382.4550599999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>286622.01183</v>
+        <v>1215283.11747</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1447122.78686</v>
+        <v>3494191.673849999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1455177.70043</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2985861.31666</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2817850.003</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>388850.21165</v>
+        <v>755644.30268</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>290149.88691</v>
+        <v>455934.3622800001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>301223.5667499999</v>
+        <v>543000.0039700001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>334444.6511999999</v>
+        <v>574648.8161599999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>294612.69284</v>
+        <v>591931.44672</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>294566.18136</v>
+        <v>630298.25346</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>290355.01266</v>
+        <v>701210.8817499999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>294784.46958</v>
+        <v>842188.5903299999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>275564.84793</v>
+        <v>1143307.28587</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1387216.14416</v>
+        <v>3242107.17704</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1391403.96394</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2723323.67588</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2599906.266</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>21038.643</v>
+        <v>81188.26531</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>20435.79058</v>
+        <v>70760.56711</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>16042.35976</v>
+        <v>79355.37913</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>17014.90079</v>
+        <v>49833.83409999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>16206.7346</v>
+        <v>89555.78660999998</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>18904.29012</v>
+        <v>97829.07549999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>10517.12504</v>
+        <v>123847.92838</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>10877.30833</v>
+        <v>121193.86473</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>11057.1639</v>
+        <v>71975.83159999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>59906.6427</v>
+        <v>252084.49681</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>63773.73649</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>262537.64078</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>217943.737</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>656792.7067800001</v>
+        <v>3196641.00753</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>800226.80827</v>
+        <v>1389145.03468</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>775664.71844</v>
+        <v>895606.6995400001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>423917.26594</v>
+        <v>1386577.71165</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>265151.93187</v>
+        <v>633697.11339</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>201711.05568</v>
+        <v>224082.41736</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>209270.3119999999</v>
+        <v>2460.077689999998</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-86354.29578999999</v>
+        <v>-630432.24915</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>36279.70685999998</v>
+        <v>727972.09889</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2100424.72623</v>
+        <v>1570462.53918</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1757075.35111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2623073.993130001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1473812.474</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>203911.71261</v>
+        <v>395315.4016900001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>215321.79783</v>
+        <v>453947.23272</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>225773.80244</v>
+        <v>657134.2559199999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>229768.95372</v>
+        <v>514565.1660600001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>220296.11365</v>
+        <v>847063.8473200001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>227478.3347</v>
+        <v>901001.6574799999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>220751.21932</v>
+        <v>880901.1315300001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>231007.7315700001</v>
+        <v>882530.8093799998</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>270473.04601</v>
+        <v>1018467.70238</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>715784.8314</v>
+        <v>1818041.78611</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>869270.7285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1634446.57165</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1940296.811</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>5297.461679999999</v>
+        <v>10936.73622</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>4189.375959999999</v>
+        <v>8032.69033</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>4696.314489999999</v>
+        <v>33867.97319999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3865.17538</v>
+        <v>10065.27565</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>3708.970600000001</v>
+        <v>51626.24511</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3842.362180000001</v>
+        <v>12563.20853</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2590.09053</v>
+        <v>9716.06911</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2204.06708</v>
+        <v>45368.30280999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3057.11922</v>
+        <v>10139.3066</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>12404.45745</v>
+        <v>24412.1853</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>10498.17789</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>37469.83394</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>23584.626</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>198614.25093</v>
+        <v>384378.6654699999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>211132.4218699999</v>
+        <v>445914.54239</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>221077.48795</v>
+        <v>623266.28272</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>225903.7783399999</v>
+        <v>504499.8904100001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>216587.14305</v>
+        <v>795437.6022099999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>223635.97252</v>
+        <v>888438.44895</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>218161.12879</v>
+        <v>871185.0624200001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>228803.6644900001</v>
+        <v>837162.50657</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>267415.92679</v>
+        <v>1008328.39578</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>703380.3739499998</v>
+        <v>1793629.60081</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>858772.55061</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1596976.73771</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1916712.185</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>248504.35042</v>
+        <v>408728.64003</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>307125.3184900001</v>
+        <v>629394.9651500001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1425176.40195</v>
+        <v>1978186.84446</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>314992.0174400001</v>
+        <v>521911.86144</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>242920.11989</v>
+        <v>537933.84114</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>622860.20851</v>
+        <v>1007669.04215</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>279559.70182</v>
+        <v>512526.24728</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>866140.6490100001</v>
+        <v>1456957.0707</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>301138.3447799999</v>
+        <v>646869.3934200001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1466221.52319</v>
+        <v>2273713.85182</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>743470.1713700001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1528617.58628</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1538269.189</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4188.43817</v>
+        <v>16776.94736</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>4589.93249</v>
+        <v>15271.86071</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>6271.945870000001</v>
+        <v>13651.34968</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>8174.408449999999</v>
+        <v>15865.05456</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4445.73596</v>
+        <v>9304.857850000002</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3655.10206</v>
+        <v>13223.12075</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3861.9095</v>
+        <v>14766.31673</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4378.11075</v>
+        <v>11409.32436</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>3373.95934</v>
+        <v>12913.38415</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>11452.04462</v>
+        <v>27576.49184</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>9378.70196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>26086.0437</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>43826.761</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>22470.45381</v>
+        <v>33898.92725000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>21942.53364</v>
+        <v>38177.05605</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>30915.57991</v>
+        <v>52122.49669</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>22787.78835</v>
+        <v>33308.72523</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>18927.20003</v>
+        <v>32293.75021</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>20494.11639</v>
+        <v>44558.08589</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>17742.69357</v>
+        <v>28268.5325</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>19445.08538</v>
+        <v>74731.11705000002</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>28713.19761000001</v>
+        <v>56913.38847999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>31417.3484</v>
+        <v>48897.5972</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>28374.84854</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>69292.16016000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>73246.628</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>221845.45844</v>
+        <v>358052.76542</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>280592.85236</v>
+        <v>575946.04839</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1387988.87617</v>
+        <v>1912412.99809</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>284029.82064</v>
+        <v>472738.08165</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>219547.1838999999</v>
+        <v>496335.23308</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>598710.9900600001</v>
+        <v>949887.8355100001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>257955.09875</v>
+        <v>469491.39805</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>842317.45288</v>
+        <v>1370816.62929</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>269051.18783</v>
+        <v>577042.6207900001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1423352.13017</v>
+        <v>2197239.76278</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>705716.62087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1433239.38242</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1421195.8</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>612200.06897</v>
+        <v>3183227.76919</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>708423.28761</v>
+        <v>1213697.30225</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-423737.8810699999</v>
+        <v>-425445.8890000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>338694.20222</v>
+        <v>1379231.01627</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>242527.9256299999</v>
+        <v>942827.1195699999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-193670.81813</v>
+        <v>117415.0326899999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>150461.8295</v>
+        <v>370834.96194</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-721487.2132299999</v>
+        <v>-1204858.51047</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>5614.408089999977</v>
+        <v>1099570.40785</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1349988.03444</v>
+        <v>1114790.47347</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1882875.90824</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2728902.9785</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1875840.096</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>261684.81335</v>
+        <v>296573.0641100001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>270726.3746</v>
+        <v>311844.0121400001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>286403.53179</v>
+        <v>340473.0054699999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>255447.19508</v>
+        <v>335777.77218</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>242373.88053</v>
+        <v>321465.95625</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>239559.60812</v>
+        <v>324707.56323</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>237553.02507</v>
+        <v>385380.8448</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>235539.64224</v>
+        <v>382462.96543</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>235662.6135</v>
+        <v>395116.32951</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>846711.4408599999</v>
+        <v>1140353.24444</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>939700.0172199999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1224941.58526</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1373391.149</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>350515.25562</v>
+        <v>2886654.70508</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>437696.9130099998</v>
+        <v>901853.2901100002</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-710141.41286</v>
+        <v>-765918.8944700001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>83247.00713999999</v>
+        <v>1043453.24409</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>154.0451000000015</v>
+        <v>621361.1633200002</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-433230.42625</v>
+        <v>-207292.5305399999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-87091.19557</v>
+        <v>-14545.88285999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-957026.85547</v>
+        <v>-1587321.4759</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-230048.20541</v>
+        <v>704454.0783399999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>503276.59358</v>
+        <v>-25562.77097000004</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>943175.8910200001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1503961.39324</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>502448.947</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>161317</v>
+        <v>170117</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>158980</v>
+        <v>169107</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>153670</v>
+        <v>164666</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>142572</v>
+        <v>154954</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>133229</v>
+        <v>147883</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>126315</v>
+        <v>143117</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>121050</v>
+        <v>140877</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>119374</v>
+        <v>141670</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>120838</v>
+        <v>144209</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>149489</v>
+        <v>186477</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>150564</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>197649</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>210223</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>